--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779CF5B-89A9-47E7-BEE5-D45542FD5B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E829F1-A833-4319-A334-BA736A7C71D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E829F1-A833-4319-A334-BA736A7C71D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E10F10-9A6C-4DAB-98D8-9A69130523A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="dropdowns" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$Z$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$AB$14</definedName>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
     <definedName name="CaseType2">dropdowns!$E$1:$E$3</definedName>
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -380,6 +380,18 @@
   </si>
   <si>
     <t>Preliminary_Determination</t>
+  </si>
+  <si>
+    <t>Decision_On_How_To_Proceed</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>Type_Of_Scope_Ruling</t>
+  </si>
+  <si>
+    <t>K (1)</t>
   </si>
 </sst>
 </file>
@@ -730,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB8:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,10 +773,11 @@
     <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="28.5546875" customWidth="1"/>
+    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -841,10 +854,16 @@
         <v>60</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -896,11 +915,13 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1" t="b">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -940,11 +961,13 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
-      <c r="Z3" s="1" t="b">
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1000,11 +1023,13 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1" t="b">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1060,11 +1085,13 @@
       <c r="Y5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="1" t="b">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1118,11 +1145,13 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1" t="b">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1176,11 +1205,13 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="1" t="b">
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1238,11 +1269,13 @@
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="1" t="b">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1302,11 +1335,13 @@
       <c r="Y9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z9" s="1" t="b">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1364,11 +1399,13 @@
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
-      <c r="Z10" s="1" t="b">
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1430,11 +1467,13 @@
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
-      <c r="Z11" s="1" t="b">
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1498,11 +1537,13 @@
       </c>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
-      <c r="Z12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1564,11 +1605,17 @@
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Z13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1626,12 +1673,14 @@
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
-      <c r="Z14" s="1" t="b">
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
+  <autoFilter ref="A1:AB14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M4:M14" xr:uid="{6A157A86-3C6C-4079-A49E-09147802FCCC}">
       <formula1>Yes_No</formula1>
@@ -1642,7 +1691,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H14" xr:uid="{46AD7191-82B7-413F-8595-7A1128BA42E7}">
       <formula1>CaseType2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z14" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB14" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{226BB8D3-1623-478B-A6C3-89622019E118}">

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E10F10-9A6C-4DAB-98D8-9A69130523A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B607B-F1CE-4EF4-849A-CB95BB3C8D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="124">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -392,13 +392,31 @@
   </si>
   <si>
     <t>K (1)</t>
+  </si>
+  <si>
+    <t>TC_TAG_014</t>
+  </si>
+  <si>
+    <t>TC_TAG_015</t>
+  </si>
+  <si>
+    <t>Remand_Status_Validation</t>
+  </si>
+  <si>
+    <t>International_Litigation_Status_Validation</t>
+  </si>
+  <si>
+    <t>Remand statuses of Sunset</t>
+  </si>
+  <si>
+    <t>International Litigation statuses of Sunset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +444,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +465,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,10 +480,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,8 +493,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -742,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB14"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB8:AB13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +952,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -1026,7 +1060,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
@@ -1088,7 +1122,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
@@ -1148,65 +1182,65 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
       <c r="AB7" s="1" t="b">
         <v>0</v>
       </c>
@@ -1272,7 +1306,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -1338,7 +1372,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -1402,7 +1436,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -1470,7 +1504,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -1540,7 +1574,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -1612,70 +1646,166 @@
         <v>117</v>
       </c>
       <c r="AB13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="R14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
       <c r="AB14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1691,10 +1821,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H14" xr:uid="{46AD7191-82B7-413F-8595-7A1128BA42E7}">
       <formula1>CaseType2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB14" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB16" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{226BB8D3-1623-478B-A6C3-89622019E118}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16" xr:uid="{226BB8D3-1623-478B-A6C3-89622019E118}">
       <formula1>FiledSelf</formula1>
     </dataValidation>
   </dataValidations>

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B607B-F1CE-4EF4-849A-CB95BB3C8D60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C67AE-62CF-4938-9484-433C25E60953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -208,15 +208,9 @@
     <t>Published_Date</t>
   </si>
   <si>
-    <t>Align_NSR_To_NR</t>
-  </si>
-  <si>
     <t>TC_TAG_004</t>
   </si>
   <si>
-    <t>Align NSR to NR and Validate dates</t>
-  </si>
-  <si>
     <t>Final_Date_Of_Anniversary_Month</t>
   </si>
   <si>
@@ -410,13 +404,43 @@
   </si>
   <si>
     <t>International Litigation statuses of Sunset</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>status hold issue</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>not started</t>
+  </si>
+  <si>
+    <t>Questions for Paul</t>
+  </si>
+  <si>
+    <t>Remand statuses of validation</t>
+  </si>
+  <si>
+    <t>International Litigation statuses validation</t>
+  </si>
+  <si>
+    <t>Align_NSR_To_AR</t>
+  </si>
+  <si>
+    <t>Align NSR to AR and Validate dates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,13 +470,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +501,16 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -480,11 +528,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -493,11 +543,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -776,42 +831,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="18.5546875" customWidth="1"/>
-    <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="45.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="45.77734375" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="31.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="28.5546875" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -867,37 +921,40 @@
         <v>55</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="AB1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC1" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -924,10 +981,10 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
@@ -950,12 +1007,15 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1" t="b">
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC2" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -996,12 +1056,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1028,10 +1091,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>18</v>
@@ -1058,23 +1121,26 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1" t="b">
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC4" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1090,10 +1156,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1120,23 +1186,26 @@
         <v>42</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1" t="b">
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC5" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -1152,10 +1221,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>18</v>
@@ -1164,12 +1233,12 @@
         <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1180,23 +1249,26 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1" t="b">
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC6" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>25</v>
@@ -1212,10 +1284,10 @@
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>18</v>
@@ -1224,12 +1296,12 @@
         <v>15</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1240,23 +1312,26 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="1" t="b">
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC7" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>25</v>
@@ -1272,10 +1347,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>18</v>
@@ -1289,7 +1364,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>42</v>
@@ -1306,21 +1381,24 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
@@ -1336,10 +1414,10 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>18</v>
@@ -1348,12 +1426,12 @@
         <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>42</v>
@@ -1372,21 +1450,24 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -1402,10 +1483,10 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>18</v>
@@ -1414,12 +1495,12 @@
         <v>15</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>42</v>
@@ -1436,21 +1517,24 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -1466,10 +1550,10 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>18</v>
@@ -1478,12 +1562,12 @@
         <v>15</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>42</v>
@@ -1504,21 +1588,24 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>25</v>
@@ -1534,10 +1621,10 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>18</v>
@@ -1546,12 +1633,12 @@
         <v>15</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>42</v>
@@ -1574,21 +1661,24 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1604,10 +1694,10 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>18</v>
@@ -1616,12 +1706,12 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>42</v>
@@ -1640,27 +1730,30 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="AB13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>25</v>
@@ -1676,10 +1769,10 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>18</v>
@@ -1688,12 +1781,12 @@
         <v>15</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>42</v>
@@ -1712,19 +1805,22 @@
       <c r="AB14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC14" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>25</v>
@@ -1735,7 +1831,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1756,23 +1852,26 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
+      <c r="AA15" s="8"/>
       <c r="AB15" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC15" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>25</v>
@@ -1783,7 +1882,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1806,7 +1905,10 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877C67AE-62CF-4938-9484-433C25E60953}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB48994-1191-4790-83DE-C6F3C5E45384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2304" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2310" windowWidth="19005" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="131">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -406,24 +406,12 @@
     <t>International Litigation statuses of Sunset</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
-    <t>status hold issue</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>not started</t>
-  </si>
-  <si>
-    <t>Questions for Paul</t>
-  </si>
-  <si>
     <t>Remand statuses of validation</t>
   </si>
   <si>
@@ -434,13 +422,22 @@
   </si>
   <si>
     <t>Align NSR to AR and Validate dates</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Not started, Clarifications needed by Josh or Paul</t>
+  </si>
+  <si>
+    <t>Hold Status missing, Clarifications needed by Josh or Paul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,8 +486,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +528,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -534,7 +556,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,11 +565,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -831,41 +859,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC16"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="45.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="45.77734375" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="45.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="25" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="28.5546875" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="28.5703125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -951,10 +979,10 @@
         <v>3</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1007,15 +1035,15 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8" t="b">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC2" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC2" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1056,15 +1084,15 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8" t="b">
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC3" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AC3" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1121,26 +1149,26 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8" t="b">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC4" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC4" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1186,15 +1214,15 @@
         <v>42</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="b">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC5" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1249,78 +1277,78 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8" t="b">
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="AC6" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="AC6" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="AC7" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC7" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1383,11 +1411,11 @@
       <c r="AB8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC8" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1452,11 +1480,11 @@
       <c r="AB9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC9" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC9" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1519,11 +1547,11 @@
       <c r="AB10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC10" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC10" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1590,11 +1618,11 @@
       <c r="AB11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC11" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC11" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1663,11 +1691,11 @@
       <c r="AB12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC12" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1738,179 +1766,180 @@
       <c r="AB13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AC13" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1" t="b">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="AC16" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
+      <c r="AC16" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:AB14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="5">
@@ -1943,12 +1972,12 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2017,7 +2046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -2025,22 +2054,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>40</v>
       </c>

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB48994-1191-4790-83DE-C6F3C5E45384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB09C3-2B94-4098-822D-B4636B461F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2310" windowWidth="19005" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2316" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
@@ -862,38 +862,38 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD18" sqref="AD18"/>
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="45.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="34.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="45.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="34.44140625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="25" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="31.85546875" hidden="1" customWidth="1"/>
-    <col min="25" max="27" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="31.88671875" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="28.5546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.44140625" customWidth="1"/>
     <col min="29" max="29" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -982,7 +982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1037,13 +1037,13 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1086,13 +1086,13 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1151,13 +1151,13 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1216,13 +1216,13 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1279,13 +1279,13 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1341,14 +1341,14 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="9" t="b">
+      <c r="AB7" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AC7" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1408,14 +1408,14 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1" t="b">
+      <c r="AB8" s="6" t="b">
         <v>1</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1477,14 +1477,14 @@
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1" t="b">
+      <c r="AB9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1544,14 +1544,14 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="b">
+      <c r="AB10" s="6" t="b">
         <v>1</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1615,14 +1615,14 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1" t="b">
+      <c r="AB11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1688,14 +1688,14 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1" t="b">
+      <c r="AB12" s="6" t="b">
         <v>1</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1763,14 +1763,14 @@
       <c r="AA13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AB13" s="1" t="b">
-        <v>1</v>
+      <c r="AB13" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AC13" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1830,14 +1830,14 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
-      <c r="AB14" s="12" t="b">
+      <c r="AB14" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AC14" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -1881,14 +1881,14 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="12" t="b">
-        <v>0</v>
+      <c r="AB15" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="AC15" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1932,14 +1932,14 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="12" t="b">
-        <v>1</v>
+      <c r="AB16" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AC16" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:AB14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="5">
@@ -1972,12 +1972,12 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>32</v>
       </c>
@@ -2054,22 +2054,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
         <v>40</v>
       </c>

--- a/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BB09C3-2B94-4098-822D-B4636B461F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C627FB82-0275-40D3-B92F-55D24547B128}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2316" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1037,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>122</v>
@@ -1151,7 +1151,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="7" t="s">
         <v>122</v>
@@ -1216,7 +1216,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>122</v>
@@ -1279,7 +1279,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>122</v>
@@ -1341,7 +1341,7 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="16" t="b">
+      <c r="AB7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC7" s="16" t="s">
@@ -1409,7 +1409,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>122</v>
@@ -1478,7 +1478,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7" t="s">
         <v>122</v>
@@ -1545,7 +1545,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7" t="s">
         <v>122</v>
@@ -1616,7 +1616,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7" t="s">
         <v>122</v>
@@ -1689,7 +1689,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="7" t="s">
         <v>122</v>
@@ -1763,7 +1763,7 @@
       <c r="AA13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AB13" s="16" t="b">
+      <c r="AB13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC13" s="16" t="s">
@@ -1830,7 +1830,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
-      <c r="AB14" s="16" t="b">
+      <c r="AB14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC14" s="16" t="s">
@@ -1882,7 +1882,7 @@
       <c r="Z15" s="12"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="7" t="s">
         <v>123</v>
@@ -1932,7 +1932,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
-      <c r="AB16" s="16" t="b">
+      <c r="AB16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC16" s="16" t="s">
